--- a/excel/Listing_Template_203433884.xlsx
+++ b/excel/Listing_Template_203433884.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyan2\workspace_java\ExcelJavaKit\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10185"/>
   </bookViews>
   <sheets>
-    <sheet name="Deals_listing_template" r:id="rId3" sheetId="1"/>
+    <sheet name="Deals_listing_template" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t/>
   </si>
@@ -96,46 +103,54 @@
   </si>
   <si>
     <t>a1qN0000001iRacIAE</t>
+  </si>
+  <si>
+    <t>USD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0."/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="176" formatCode="0."/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Arial"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Arial"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="50"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -153,263 +168,587 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-      <protection locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-      <protection locked="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="right"/>
-      <protection locked="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="right"/>
-      <protection locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-      <protection locked="true"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="right"/>
-      <protection locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-      <protection locked="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center"/>
-      <protection locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-      <protection locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true">
-      <pane ySplit="3.0" state="frozen" topLeftCell="A4" activePane="bottomLeft"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" hidden="true" width="21.01953125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="17.984375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.9296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="33.1484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.953125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="6.0625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="15.0546875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="14.41796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="73.9609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.01953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="21" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s" s="1">
+    <row r="1" spans="1:11" ht="15">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2"/>
-      <c r="B2" t="s" s="2">
+    <row r="2" spans="1:11" ht="15">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s" s="2">
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s" s="2">
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s" s="2">
+      <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11">
       <c r="A3" s="3"/>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" t="n" s="3"/>
-      <c r="F3" t="n" s="3"/>
-      <c r="G3" t="s" s="3">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H3" t="n" s="3"/>
-      <c r="I3" t="s" s="3">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J3" t="s" s="3">
+      <c r="J3" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="K3" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="13">
+    <row r="4" spans="1:11">
+      <c r="A4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s" s="4">
+      <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s" s="5">
+      <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s" s="6">
+      <c r="D4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="n" s="7">
-        <v>40.0</v>
-      </c>
-      <c r="F4" t="n" s="8"/>
-      <c r="G4" t="s" s="9">
-        <v>23</v>
-      </c>
-      <c r="H4" t="n" s="10"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
+      <c r="E4" s="7">
+        <v>40</v>
+      </c>
+      <c r="F4" s="8">
+        <v>23</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="10">
+        <v>3432</v>
+      </c>
+      <c r="I4" s="11">
+        <v>23</v>
+      </c>
+      <c r="J4" s="12">
+        <v>42729</v>
+      </c>
+      <c r="K4" s="12">
+        <v>42729</v>
+      </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="13">
+    <row r="5" spans="1:11">
+      <c r="A5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s" s="4">
+      <c r="B5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" t="s" s="9">
-        <v>23</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
+      <c r="E5" s="7">
+        <v>23</v>
+      </c>
+      <c r="F5" s="8">
+        <v>23</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="10">
+        <v>234</v>
+      </c>
+      <c r="I5" s="11">
+        <v>23</v>
+      </c>
+      <c r="J5" s="12">
+        <v>42729</v>
+      </c>
+      <c r="K5" s="12">
+        <v>42729</v>
+      </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="13">
+    <row r="6" spans="1:11">
+      <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s" s="4">
+      <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s" s="5">
+      <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s" s="6">
+      <c r="D6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="n" s="7">
-        <v>50.0</v>
-      </c>
-      <c r="F6" t="n" s="8"/>
-      <c r="G6" t="s" s="9">
-        <v>23</v>
-      </c>
-      <c r="H6" t="n" s="10"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12"/>
+      <c r="E6" s="7">
+        <v>50</v>
+      </c>
+      <c r="F6" s="8">
+        <v>23</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="10">
+        <v>234</v>
+      </c>
+      <c r="I6" s="11">
+        <v>23</v>
+      </c>
+      <c r="J6" s="12">
+        <v>42729</v>
+      </c>
+      <c r="K6" s="12">
+        <v>42729</v>
+      </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="13">
+    <row r="7" spans="1:11">
+      <c r="A7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s" s="4">
+      <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" t="s" s="9">
-        <v>23</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="12"/>
+      <c r="E7" s="7">
+        <v>23</v>
+      </c>
+      <c r="F7" s="8">
+        <v>23</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="10">
+        <v>234</v>
+      </c>
+      <c r="I7" s="11">
+        <v>23</v>
+      </c>
+      <c r="J7" s="12">
+        <v>42729</v>
+      </c>
+      <c r="K7" s="12">
+        <v>42729</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection password="C613" sheet="true" scenarios="true" objects="true"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="between" sqref="I4:I7" allowBlank="true" errorStyle="stop" showErrorMessage="true">
+    <dataValidation type="whole" allowBlank="1" showErrorMessage="1" sqref="I4:I7">
       <formula1>-2147483648</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>